--- a/data/input/tech_mapping_in.xlsx
+++ b/data/input/tech_mapping_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553A6361-636D-4B0C-85EF-A2134402237E}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F34BD65-976B-41EB-99B6-54CDA1E646C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
@@ -915,12 +915,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -950,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1012,6 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,50 +2565,50 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="K26" s="21">
+        <v>1</v>
+      </c>
+      <c r="L26" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" s="21">
+        <v>100</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="21">
         <v>360000000</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="21" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3346,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B60"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input/tech_mapping_in.xlsx
+++ b/data/input/tech_mapping_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F34BD65-976B-41EB-99B6-54CDA1E646C9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78C9D18-294B-4F32-BD77-A1A4ABDA375A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t>additional_acts</t>
-  </si>
-  <si>
-    <t>premise_auxiliary_for_infrastructure</t>
   </si>
   <si>
     <t>kilogram</t>
@@ -915,18 +912,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -956,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1018,7 +1009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,14 +1315,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="C25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="84.140625" customWidth="1"/>
+    <col min="7" max="7" width="115" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1391,22 +1381,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>11.83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>121</v>
@@ -1415,198 +1411,216 @@
         <v>129</v>
       </c>
       <c r="K2">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
         <v>140</v>
       </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
-      </c>
       <c r="P2">
-        <v>304.8780487804878</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="Q2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>11.94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="Q3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>11.83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P4">
-        <v>360000000</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="Q4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>11.94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P5">
-        <v>360000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="Q5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>5.28</v>
+        <v>9.9444441659999985</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1615,45 +1629,45 @@
         <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P6">
-        <v>18939393.939393941</v>
+        <v>10055866.203351971</v>
       </c>
       <c r="Q6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7">
-        <v>11.83</v>
+        <v>5.54</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
         <v>121</v>
@@ -1665,101 +1679,95 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P7">
-        <v>8453085.3761622999</v>
+        <v>18050541.516245492</v>
       </c>
       <c r="Q7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8">
-        <v>11.94</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
         <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O8" t="s">
         <v>141</v>
       </c>
       <c r="P8">
-        <v>8375209.380234506</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>11.83</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>121</v>
@@ -1771,48 +1779,48 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P9">
-        <v>8453085.3761622999</v>
+        <v>3003003.0030030031</v>
       </c>
       <c r="Q9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>11.94</v>
+        <v>11.83</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
         <v>121</v>
@@ -1824,51 +1832,51 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10">
-        <v>8375209.380234506</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="Q10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>9.9444441659999985</v>
+        <v>11.94</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
         <v>129</v>
@@ -1877,72 +1885,72 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P11">
-        <v>10055866.203351971</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="Q11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>5.54</v>
+        <v>13.9</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
         <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P12">
-        <v>18050541.516245492</v>
+        <v>7194244.6043165466</v>
       </c>
       <c r="Q12" t="s">
         <v>149</v>
@@ -1950,22 +1958,28 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>5.54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
         <v>121</v>
@@ -1977,30 +1991,30 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>18050541.516245492</v>
       </c>
       <c r="Q13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -2009,22 +2023,22 @@
         <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
         <v>139</v>
@@ -2033,21 +2047,21 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14">
-        <v>100000000</v>
+        <v>304.8780487804878</v>
       </c>
       <c r="Q14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>
@@ -2056,84 +2070,84 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P15">
         <v>100000000</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
         <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P16">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="Q16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2159,83 +2173,83 @@
         <v>122</v>
       </c>
       <c r="J17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P17">
         <v>100000000</v>
       </c>
       <c r="Q17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P18">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="Q18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -2244,92 +2258,92 @@
         <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P19">
         <v>100000000</v>
       </c>
       <c r="Q19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P20">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="Q20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -2338,13 +2352,13 @@
         <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
         <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
         <v>129</v>
@@ -2353,145 +2367,139 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21">
         <v>100000000</v>
       </c>
       <c r="Q21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P22">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="Q22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s">
         <v>139</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O23" t="s">
         <v>142</v>
       </c>
       <c r="P23">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="Q23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J24" t="s">
         <v>129</v>
@@ -2500,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s">
         <v>139</v>
@@ -2509,36 +2517,36 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P24">
-        <v>3003003.0030030031</v>
+        <v>100000</v>
       </c>
       <c r="Q24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J25" t="s">
         <v>129</v>
@@ -2547,95 +2555,95 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s">
         <v>139</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="Q25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>30</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="21" t="s">
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="21">
-        <v>1</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="N26" s="21">
-        <v>100</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="P26" s="21">
+      <c r="J26" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26">
         <v>360000000</v>
       </c>
-      <c r="Q26" s="21" t="s">
-        <v>148</v>
+      <c r="Q26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2644,45 +2652,45 @@
         <v>134</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P27">
-        <v>100000000</v>
+        <v>360000000</v>
       </c>
       <c r="Q27" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2691,69 +2699,63 @@
         <v>134</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N28">
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P28">
-        <v>100000000</v>
+        <v>360000000</v>
       </c>
       <c r="Q28" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>11.83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P29">
-        <v>8453085.3761622999</v>
+        <v>360000000</v>
       </c>
       <c r="Q29" t="s">
         <v>147</v>
@@ -2761,52 +2763,46 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30">
-        <v>11.94</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N30">
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P30">
-        <v>8375209.380234506</v>
+        <v>360000000</v>
       </c>
       <c r="Q30" t="s">
         <v>147</v>
@@ -2814,131 +2810,119 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31">
-        <v>13.9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
         <v>121</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P31">
-        <v>7194244.6043165466</v>
+        <v>360000000</v>
       </c>
       <c r="Q31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32">
-        <v>5.54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N32">
         <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P32">
-        <v>18050541.516245492</v>
+        <v>360000000</v>
       </c>
       <c r="Q32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J33" t="s">
         <v>129</v>
@@ -2947,77 +2931,83 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>360000000</v>
       </c>
       <c r="Q33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="E34">
+        <v>5.28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N34">
         <v>100</v>
       </c>
       <c r="O34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P34">
-        <v>360000000</v>
+        <v>18939393.939393941</v>
       </c>
       <c r="Q34" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -3026,101 +3016,101 @@
         <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
         <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" t="s">
         <v>138</v>
       </c>
-      <c r="M35" t="s">
-        <v>139</v>
-      </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
       <c r="Q35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J36" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P36">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
         <v>120</v>
@@ -3135,39 +3125,39 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P37">
         <v>1</v>
       </c>
       <c r="Q37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H38" t="s">
         <v>120</v>
@@ -3182,45 +3172,45 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J39" t="s">
         <v>129</v>
@@ -3229,45 +3219,45 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P39">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J40" t="s">
         <v>129</v>
@@ -3276,45 +3266,45 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P40">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J41" t="s">
         <v>129</v>
@@ -3323,27 +3313,27 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>143</v>
       </c>
       <c r="P41">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q41">
-    <sortCondition ref="B1:B41"/>
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3353,9 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3412,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -3421,7 +3409,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -3433,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3441,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>18</v>
@@ -3459,39 +3447,39 @@
         <v>77</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K2" s="7">
         <f>18000000/24</f>
         <v>750000</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N2" s="7">
         <v>100</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:P7" si="0">100000000/(K2*F2)</f>
         <v>11.270780501549732</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3499,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
@@ -3517,39 +3505,39 @@
         <v>77</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K3" s="7">
         <f>18000000/24</f>
         <v>750000</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N3" s="7">
         <v>100</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" si="0"/>
         <v>11.166945840312675</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3557,7 +3545,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>20</v>
@@ -3575,39 +3563,39 @@
         <v>77</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7">
         <f>18000000/24</f>
         <v>750000</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N4" s="7">
         <v>100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="0"/>
         <v>11.270780501549732</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3615,7 +3603,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -3633,39 +3621,39 @@
         <v>77</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7">
         <f>18000000/24</f>
         <v>750000</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N5" s="7">
         <v>100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="0"/>
         <v>11.166945840312675</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3673,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -3692,39 +3680,39 @@
         <v>78</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K6" s="12">
         <f>81500/24</f>
         <v>3395.8333333333335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N6" s="7">
         <v>100</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="0"/>
         <v>2961.2366733797194</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3732,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -3750,38 +3738,38 @@
         <v>77</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7">
         <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N7" s="7">
         <v>100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>64466.21970087674</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3789,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -3801,45 +3789,45 @@
         <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7">
         <f>100*20</f>
         <v>2000</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N8" s="14">
         <v>10</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P8" s="15">
         <f>100/K8</f>
         <v>0.05</v>
       </c>
       <c r="Q8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3847,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -3865,38 +3853,38 @@
         <v>77</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" s="7">
         <v>100</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P9" s="8">
         <f>100000/K9</f>
         <v>100000</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3904,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -3922,39 +3910,39 @@
         <v>77</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7">
         <f>18000000/24</f>
         <v>750000</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N10" s="7">
         <v>100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P10" s="8">
         <f>100000000/(K10*F10)</f>
         <v>11.270780501549732</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3962,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -3980,39 +3968,39 @@
         <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7">
         <f>18000000/24</f>
         <v>750000</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N11" s="7">
         <v>100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P11" s="8">
         <f>100000000/(K11*F11)</f>
         <v>11.166945840312675</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4020,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
@@ -4038,38 +4026,38 @@
         <v>77</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K12" s="7">
         <v>14.25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N12" s="7">
         <v>100</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P12" s="8">
         <f>100000000/(K12*F12)</f>
         <v>504859.27047835413</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4077,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
@@ -4095,38 +4083,38 @@
         <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7">
         <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N13" s="7">
         <v>100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P13" s="8">
         <f>100000000/(K13*F13)</f>
         <v>64466.21970087674</v>
       </c>
       <c r="Q13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="R13" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4134,7 +4122,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>28</v>
@@ -4146,44 +4134,44 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7">
         <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N14" s="7">
         <v>100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P35" si="1">100000/K14</f>
+        <f t="shared" ref="P14:P39" si="1">100000/K14</f>
         <v>304.8780487804878</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4191,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>29</v>
@@ -4203,44 +4191,44 @@
         <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K15" s="7">
         <v>400</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N15" s="7">
         <v>100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4248,7 +4236,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -4260,44 +4248,44 @@
         <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N16" s="7">
         <v>100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4305,7 +4293,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>31</v>
@@ -4317,44 +4305,44 @@
         <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7">
         <v>1E-3</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N17" s="7">
         <v>100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4362,7 +4350,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>32</v>
@@ -4374,44 +4362,44 @@
         <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7">
         <v>400</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N18" s="7">
         <v>100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4419,7 +4407,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
@@ -4431,44 +4419,44 @@
         <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7">
         <v>1</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N19" s="7">
         <v>100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4476,7 +4464,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>34</v>
@@ -4488,44 +4476,44 @@
         <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7">
         <v>9130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N20" s="7">
         <v>100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="1"/>
         <v>10.95290251916758</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4533,7 +4521,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>35</v>
@@ -4545,44 +4533,44 @@
         <v>64</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K21" s="7">
         <v>13787</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N21" s="7">
         <v>100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="1"/>
         <v>7.2532095452237613</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4590,7 +4578,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>36</v>
@@ -4602,44 +4590,44 @@
         <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7">
         <v>1000</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22" s="7">
         <v>100</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4647,10 +4635,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>53</v>
@@ -4659,44 +4647,44 @@
         <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7">
         <v>0.56999999999999995</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N23" s="7">
         <v>100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="1"/>
         <v>175438.59649122809</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4704,10 +4692,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>53</v>
@@ -4716,44 +4704,44 @@
         <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N24" s="7">
         <v>100</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4761,7 +4749,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>37</v>
@@ -4773,44 +4761,44 @@
         <v>64</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N25" s="7">
         <v>100</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4818,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>38</v>
@@ -4830,44 +4818,44 @@
         <v>64</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N26" s="7">
         <v>100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4875,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>39</v>
@@ -4887,44 +4875,44 @@
         <v>64</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>126</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K27" s="7">
         <v>1</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N27" s="7">
         <v>100</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4932,7 +4920,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>40</v>
@@ -4944,44 +4932,44 @@
         <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7">
         <v>0.01</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N28" s="7">
         <v>100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4989,7 +4977,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>41</v>
@@ -5001,44 +4989,44 @@
         <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N29" s="7">
         <v>100</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5046,56 +5034,56 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N30" s="7">
         <v>100</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5103,7 +5091,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>42</v>
@@ -5115,44 +5103,44 @@
         <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K31" s="7">
         <v>0.01</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N31" s="7">
         <v>100</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5160,7 +5148,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>43</v>
@@ -5172,44 +5160,44 @@
         <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7">
         <v>0.01</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N32" s="7">
         <v>100</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -5217,10 +5205,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>54</v>
@@ -5229,44 +5217,44 @@
         <v>118</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" s="7">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N33" s="7">
         <v>100</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="1"/>
         <v>2325581.3953488376</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5274,56 +5262,56 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K34" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N34" s="7">
         <v>100</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5331,56 +5319,56 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K35" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N35" s="7">
         <v>100</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5388,7 +5376,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>30</v>
@@ -5400,44 +5388,44 @@
         <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K36" s="7">
         <v>1</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N36" s="7">
         <v>100</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P36" s="8">
-        <f>100000/K36</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
@@ -5451,7 +5439,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>31</v>
@@ -5463,44 +5451,44 @@
         <v>70</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K37" s="7">
         <v>1E-3</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N37" s="7">
         <v>100</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P37" s="8">
-        <f>100000/K37</f>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5508,7 +5496,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>32</v>
@@ -5520,44 +5508,44 @@
         <v>71</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K38" s="7">
         <v>400</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N38" s="7">
         <v>100</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P38" s="8">
-        <f>100000/K38</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5565,7 +5553,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>33</v>
@@ -5577,44 +5565,44 @@
         <v>72</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K39" s="7">
         <v>1</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N39" s="7">
         <v>100</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P39" s="8">
-        <f>100000/K39</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5622,25 +5610,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>128</v>
@@ -5652,25 +5640,25 @@
         <v>1</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N40" s="7">
         <v>100</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P40" s="8">
         <v>100000</v>
       </c>
       <c r="Q40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5678,55 +5666,55 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K41" s="7">
         <v>2000</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N41" s="7">
         <v>100</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P41" s="8">
         <v>236</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5734,55 +5722,55 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>235</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K42" s="7">
         <v>2000</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N42" s="7">
         <v>100</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P42" s="8">
         <v>236</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5790,55 +5778,55 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>236</v>
+        <v>270</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K43" s="7">
         <v>2000</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N43" s="7">
         <v>100</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P43" s="8">
         <v>236</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5846,55 +5834,55 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>237</v>
+        <v>270</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K44" s="7">
         <v>2000</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N44" s="7">
         <v>100</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P44" s="8">
         <v>236</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5902,55 +5890,55 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K45" s="7">
         <v>600</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N45" s="7">
         <v>100</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P45" s="8">
         <v>523</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5958,55 +5946,55 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K46" s="7">
         <v>600</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N46" s="7">
         <v>100</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P46" s="8">
         <v>523</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6014,55 +6002,55 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>67</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K47" s="7">
         <v>600</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N47" s="7">
         <v>100</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P47" s="8">
         <v>523</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6070,55 +6058,55 @@
         <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K48" s="7">
         <v>600</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N48" s="7">
         <v>100</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P48" s="8">
         <v>523</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6126,13 +6114,13 @@
         <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>63</v>
@@ -6144,38 +6132,38 @@
         <v>77</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" s="7">
         <v>1</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N49" s="7">
         <v>100</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P49" s="8">
         <f>100000000/(K49*F49)</f>
         <v>3003003.0030030031</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:24" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -6183,56 +6171,56 @@
         <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50" s="7">
         <v>9130</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M50" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N50" s="7">
+        <v>100</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="N50" s="7">
-        <v>100</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="P50" s="8">
         <f>100000/K50</f>
         <v>10.95290251916758</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6240,55 +6228,55 @@
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>122</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" s="7">
         <v>1</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N51" s="7">
         <v>100</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P51" s="8">
         <v>1</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6296,55 +6284,55 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>122</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K52" s="7">
         <v>1</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N52" s="7">
         <v>100</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P52" s="8">
         <v>1</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6352,55 +6340,55 @@
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I53" s="20" t="s">
         <v>121</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N53" s="7">
         <v>100</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P53" s="8">
         <v>1</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6408,55 +6396,55 @@
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>121</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N54" s="7">
         <v>100</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P54" s="8">
         <v>1</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
@@ -6470,56 +6458,56 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K55" s="7">
         <v>700000</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N55" s="7">
         <v>100</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" ref="P55:P60" si="2">100000000/K55</f>
         <v>142.85714285714286</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -6533,56 +6521,56 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K56" s="7">
         <v>580000</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N56" s="7">
         <v>100</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="2"/>
         <v>172.41379310344828</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -6596,56 +6584,56 @@
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K57" s="7">
         <v>272000</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N57" s="7">
         <v>100</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="2"/>
         <v>367.64705882352939</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
@@ -6659,56 +6647,56 @@
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K58" s="7">
         <v>272000</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N58" s="7">
         <v>100</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="2"/>
         <v>367.64705882352939</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -6722,56 +6710,56 @@
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K59" s="7">
         <v>25000</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N59" s="7">
         <v>100</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -6785,56 +6773,56 @@
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K60" s="7">
         <v>200000</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N60" s="7">
         <v>100</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
@@ -6844,6 +6832,9 @@
       <c r="X60" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input/tech_mapping_in.xlsx
+++ b/data/input/tech_mapping_in.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78C9D18-294B-4F32-BD77-A1A4ABDA375A}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73168542-9081-413F-8585-9DFCC4A1C07C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">infrastructure!$A$1:$R$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,8 +36,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E6BC53D3-3096-46F9-91F1-AA7FACDB1E36}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E6BC53D3-3096-46F9-91F1-AA7FACDB1E36}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    It must match Calliope's carrier</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3A2CC020-D427-4A3E-A993-7931318660A2}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3A2CC020-D427-4A3E-A993-7931318660A2}">
+      <text>
+        <t>[Comentari en fils]
+La vostra versió de l'Excel us permet llegir aquest comentari en fils. No obstant això, les edicions que s'hi apliquin se suprimiran si el fitxer s'obre en una versió més recent de l'Excel. Més informació: https://go.microsoft.com/fwlink/?linkid=870924.
+Comentari:
+    It must match Calliope's carrier</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="273">
   <si>
     <t>id</t>
   </si>
@@ -861,12 +900,18 @@
   <si>
     <t>offsite</t>
   </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +955,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1024,6 +1075,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Miquel Sierra Montoya" id="{BB5FBDA2-1C34-416F-BE8D-55B21D0521E5}" userId="S::1361185@uab.cat::1a887b38-0396-4545-a8a2-e49e15219001" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,22 +1368,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2025-05-19T12:40:19.60" personId="{BB5FBDA2-1C34-416F-BE8D-55B21D0521E5}" id="{E6BC53D3-3096-46F9-91F1-AA7FACDB1E36}">
+    <text>It must match Calliope's carrier</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2025-05-19T12:40:06.26" personId="{BB5FBDA2-1C34-416F-BE8D-55B21D0521E5}" id="{3A2CC020-D427-4A3E-A993-7931318660A2}">
+    <text>It must match Calliope's carrier</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="115" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="115" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,40 +1422,43 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1399,40 +1478,43 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>121</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>129</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>130</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>138</v>
       </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
         <v>140</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>8453085.3761622999</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1452,40 +1534,43 @@
         <v>77</v>
       </c>
       <c r="G3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>114</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>121</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>129</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>130</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>138</v>
       </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
         <v>140</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>8375209.380234506</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1504,41 +1589,44 @@
       <c r="F4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>0.49768615902397983</v>
+      </c>
+      <c r="H4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>113</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>121</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>129</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>130</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>138</v>
       </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
         <v>140</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>8453085.3761622999</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1557,41 +1645,44 @@
       <c r="F5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>0.50231384097602017</v>
+      </c>
+      <c r="H5" t="s">
         <v>80</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>121</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>129</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>130</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>138</v>
       </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5" t="s">
         <v>140</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>8375209.380234506</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1611,40 +1702,43 @@
         <v>78</v>
       </c>
       <c r="G6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>115</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>122</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>269</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>131</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>138</v>
       </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6" t="s">
         <v>140</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>10055866.203351971</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1664,40 +1758,43 @@
         <v>77</v>
       </c>
       <c r="G7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>116</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>121</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>129</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>130</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>138</v>
       </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s">
         <v>140</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>18050541.516245492</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1711,40 +1808,43 @@
         <v>62</v>
       </c>
       <c r="G8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" t="s">
         <v>83</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>117</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>269</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>130</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>138</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>10</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>141</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10000</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1764,40 +1864,43 @@
         <v>77</v>
       </c>
       <c r="G9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>121</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>129</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>130</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>138</v>
       </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
         <v>140</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3003003.0030030031</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1816,41 +1919,44 @@
       <c r="F10" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>0.49768615902397983</v>
+      </c>
+      <c r="H10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>113</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>129</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
         <v>130</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>138</v>
       </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s">
         <v>140</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>8453085.3761622999</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1869,41 +1975,44 @@
       <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>0.50231384097602017</v>
+      </c>
+      <c r="H11" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>114</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>121</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
         <v>130</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>138</v>
       </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s">
         <v>140</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>8375209.380234506</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1923,40 +2032,43 @@
         <v>77</v>
       </c>
       <c r="G12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>115</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>121</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>269</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>130</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>138</v>
       </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s">
         <v>140</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>7194244.6043165466</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1976,40 +2088,43 @@
         <v>77</v>
       </c>
       <c r="G13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>116</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>121</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>129</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>130</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>138</v>
       </c>
-      <c r="N13">
-        <v>100</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s">
         <v>140</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>18050541.516245492</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2023,40 +2138,43 @@
         <v>64</v>
       </c>
       <c r="G14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>64</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>121</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>328</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>132</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>139</v>
       </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
         <v>142</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>304.8780487804878</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2070,40 +2188,43 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" t="s">
         <v>90</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>64</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>123</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>269</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>133</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>138</v>
       </c>
-      <c r="N15">
-        <v>100</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
         <v>140</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>100000000</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2117,40 +2238,43 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>64</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>122</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>269</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>133</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
         <v>140</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>100000000</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2164,40 +2288,43 @@
         <v>64</v>
       </c>
       <c r="G17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>64</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>122</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>269</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>133</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>138</v>
       </c>
-      <c r="N17">
-        <v>100</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s">
         <v>140</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>100000000</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2211,40 +2338,43 @@
         <v>64</v>
       </c>
       <c r="G18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>64</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>123</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>269</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>133</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>138</v>
       </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s">
         <v>140</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>100000000</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2258,40 +2388,43 @@
         <v>64</v>
       </c>
       <c r="G19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" t="s">
         <v>94</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>64</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>122</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>129</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>133</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>138</v>
       </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
         <v>140</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>100000000</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2305,40 +2438,43 @@
         <v>64</v>
       </c>
       <c r="G20" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" t="s">
         <v>95</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>64</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>124</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>129</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>133</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>138</v>
       </c>
-      <c r="N20">
-        <v>100</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
         <v>140</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>100000000</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2352,40 +2488,43 @@
         <v>64</v>
       </c>
       <c r="G21" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" t="s">
         <v>96</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>64</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>125</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>129</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>133</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>138</v>
       </c>
-      <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
         <v>140</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>100000000</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2399,40 +2538,43 @@
         <v>64</v>
       </c>
       <c r="G22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" t="s">
         <v>97</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>64</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>122</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>269</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>133</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>138</v>
       </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
         <v>140</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>100000000</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2446,40 +2588,43 @@
         <v>64</v>
       </c>
       <c r="G23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" t="s">
         <v>98</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>126</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>129</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>132</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>139</v>
       </c>
-      <c r="N23">
-        <v>100</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
         <v>142</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>100000</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2493,40 +2638,43 @@
         <v>64</v>
       </c>
       <c r="G24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" t="s">
         <v>99</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>64</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>126</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>129</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>132</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>139</v>
       </c>
-      <c r="N24">
-        <v>100</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
         <v>142</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>100000</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2540,40 +2688,43 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" t="s">
         <v>99</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>64</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>126</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>129</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>132</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>139</v>
       </c>
-      <c r="N25">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
         <v>142</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>100000</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2587,40 +2738,43 @@
         <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>127</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>269</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>134</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>138</v>
       </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
         <v>140</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>360000000</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2634,40 +2788,43 @@
         <v>66</v>
       </c>
       <c r="G27" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" t="s">
         <v>101</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>118</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>122</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>269</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>134</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>138</v>
       </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27" t="s">
         <v>140</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>360000000</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2681,40 +2838,43 @@
         <v>67</v>
       </c>
       <c r="G28" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" t="s">
         <v>102</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>118</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>127</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>269</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>134</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>138</v>
       </c>
-      <c r="N28">
-        <v>100</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
         <v>140</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>360000000</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -2728,40 +2888,43 @@
         <v>68</v>
       </c>
       <c r="G29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>118</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>127</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>269</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>134</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>138</v>
       </c>
-      <c r="N29">
-        <v>100</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29" t="s">
         <v>140</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>360000000</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2775,40 +2938,43 @@
         <v>69</v>
       </c>
       <c r="G30" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" t="s">
         <v>91</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>118</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>122</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>269</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
         <v>134</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>138</v>
       </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
         <v>140</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>360000000</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36</v>
       </c>
@@ -2822,40 +2988,43 @@
         <v>70</v>
       </c>
       <c r="G31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" t="s">
         <v>104</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>118</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>121</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>269</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>134</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>138</v>
       </c>
-      <c r="N31">
-        <v>100</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31" t="s">
         <v>140</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>360000000</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
@@ -2869,40 +3038,43 @@
         <v>71</v>
       </c>
       <c r="G32" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" t="s">
         <v>93</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>118</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>123</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>269</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
         <v>134</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>138</v>
       </c>
-      <c r="N32">
-        <v>100</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="O32">
+        <v>100</v>
+      </c>
+      <c r="P32" t="s">
         <v>140</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>360000000</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2916,40 +3088,43 @@
         <v>72</v>
       </c>
       <c r="G33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33" t="s">
         <v>94</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>118</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>122</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>129</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
         <v>134</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>138</v>
       </c>
-      <c r="N33">
-        <v>100</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="O33">
+        <v>100</v>
+      </c>
+      <c r="P33" t="s">
         <v>140</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>360000000</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44</v>
       </c>
@@ -2969,40 +3144,43 @@
         <v>77</v>
       </c>
       <c r="G34" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" t="s">
         <v>105</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>119</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>121</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>129</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
         <v>130</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>138</v>
       </c>
-      <c r="N34">
-        <v>100</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34" t="s">
         <v>140</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>18939393.939393941</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
@@ -3016,40 +3194,43 @@
         <v>74</v>
       </c>
       <c r="G35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" t="s">
         <v>106</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>120</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>128</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>269</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
         <v>135</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>138</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
         <v>143</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>57</v>
       </c>
@@ -3063,40 +3244,43 @@
         <v>74</v>
       </c>
       <c r="G36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" t="s">
         <v>107</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>120</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>121</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>129</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
         <v>136</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>138</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
         <v>144</v>
       </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>58</v>
       </c>
@@ -3110,40 +3294,43 @@
         <v>75</v>
       </c>
       <c r="G37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" t="s">
         <v>108</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>120</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>121</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>129</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
         <v>135</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>138</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
         <v>143</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>59</v>
       </c>
@@ -3157,40 +3344,43 @@
         <v>76</v>
       </c>
       <c r="G38" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" t="s">
         <v>109</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>120</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>121</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>129</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
         <v>135</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>138</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
         <v>143</v>
       </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60</v>
       </c>
@@ -3204,40 +3394,43 @@
         <v>74</v>
       </c>
       <c r="G39" t="s">
+        <v>272</v>
+      </c>
+      <c r="H39" t="s">
         <v>110</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>120</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>122</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>129</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
         <v>137</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>138</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
         <v>145</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>61</v>
       </c>
@@ -3251,40 +3444,43 @@
         <v>74</v>
       </c>
       <c r="G40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" t="s">
         <v>111</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>120</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>121</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>129</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
         <v>136</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>138</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
         <v>144</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>62</v>
       </c>
@@ -3298,52 +3494,58 @@
         <v>74</v>
       </c>
       <c r="G41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" t="s">
         <v>112</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>120</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>121</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>129</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
         <v>135</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>138</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
         <v>143</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R41">
     <sortCondition ref="A1:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6832,9 +7034,11 @@
       <c r="X60" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R60" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input/tech_mapping_in.xlsx
+++ b/data/input/tech_mapping_in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73168542-9081-413F-8585-9DFCC4A1C07C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E318788-42D7-4FE0-9D18-1840AFA98F48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,12 +955,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1388,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -3543,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,7 +4360,7 @@
         <v>142</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P39" si="1">100000/K14</f>
+        <f>100000/K14</f>
         <v>304.8780487804878</v>
       </c>
       <c r="Q14" s="9" t="s">
@@ -4423,7 +4417,7 @@
         <v>142</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K15</f>
         <v>250</v>
       </c>
       <c r="Q15" s="9" t="s">
@@ -4480,7 +4474,7 @@
         <v>142</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K16</f>
         <v>100000</v>
       </c>
       <c r="Q16" s="9" t="s">
@@ -4537,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K17</f>
         <v>100000000</v>
       </c>
       <c r="Q17" s="9" t="s">
@@ -4594,7 +4588,7 @@
         <v>142</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K18</f>
         <v>250</v>
       </c>
       <c r="Q18" s="9" t="s">
@@ -4651,7 +4645,7 @@
         <v>142</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K19</f>
         <v>100000</v>
       </c>
       <c r="Q19" s="9" t="s">
@@ -4708,7 +4702,7 @@
         <v>142</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K20</f>
         <v>10.95290251916758</v>
       </c>
       <c r="Q20" s="9" t="s">
@@ -4765,7 +4759,7 @@
         <v>142</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K21</f>
         <v>7.2532095452237613</v>
       </c>
       <c r="Q21" s="9" t="s">
@@ -4822,7 +4816,7 @@
         <v>142</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K22</f>
         <v>100</v>
       </c>
       <c r="Q22" s="9" t="s">
@@ -4879,7 +4873,7 @@
         <v>142</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K23</f>
         <v>175438.59649122809</v>
       </c>
       <c r="Q23" s="9" t="s">
@@ -4936,7 +4930,7 @@
         <v>142</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K24</f>
         <v>100000</v>
       </c>
       <c r="Q24" s="9" t="s">
@@ -4993,7 +4987,7 @@
         <v>142</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K25</f>
         <v>100000</v>
       </c>
       <c r="Q25" s="9" t="s">
@@ -5050,7 +5044,7 @@
         <v>142</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K26</f>
         <v>100000</v>
       </c>
       <c r="Q26" s="9" t="s">
@@ -5107,7 +5101,7 @@
         <v>142</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K27</f>
         <v>100000</v>
       </c>
       <c r="Q27" s="9" t="s">
@@ -5164,7 +5158,7 @@
         <v>142</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K28</f>
         <v>10000000</v>
       </c>
       <c r="Q28" s="9" t="s">
@@ -5221,7 +5215,7 @@
         <v>142</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K29</f>
         <v>4000000</v>
       </c>
       <c r="Q29" s="9" t="s">
@@ -5278,7 +5272,7 @@
         <v>142</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K30</f>
         <v>40000000</v>
       </c>
       <c r="Q30" s="9" t="s">
@@ -5335,7 +5329,7 @@
         <v>142</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K31</f>
         <v>10000000</v>
       </c>
       <c r="Q31" s="9" t="s">
@@ -5392,7 +5386,7 @@
         <v>142</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K32</f>
         <v>10000000</v>
       </c>
       <c r="Q32" s="9" t="s">
@@ -5449,7 +5443,7 @@
         <v>142</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K33</f>
         <v>2325581.3953488376</v>
       </c>
       <c r="Q33" s="9" t="s">
@@ -5506,7 +5500,7 @@
         <v>142</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K34</f>
         <v>40000000</v>
       </c>
       <c r="Q34" s="9" t="s">
@@ -5563,7 +5557,7 @@
         <v>142</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K35</f>
         <v>40000000</v>
       </c>
       <c r="Q35" s="9" t="s">
@@ -5620,7 +5614,7 @@
         <v>142</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K36</f>
         <v>100000</v>
       </c>
       <c r="Q36" s="9" t="s">
@@ -5683,7 +5677,7 @@
         <v>142</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K37</f>
         <v>100000000</v>
       </c>
       <c r="Q37" s="9" t="s">
@@ -5740,7 +5734,7 @@
         <v>142</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K38</f>
         <v>250</v>
       </c>
       <c r="Q38" s="9" t="s">
@@ -5797,7 +5791,7 @@
         <v>142</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="1"/>
+        <f>100000/K39</f>
         <v>100000</v>
       </c>
       <c r="Q39" s="9" t="s">
@@ -6702,7 +6696,7 @@
         <v>258</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" ref="P55:P60" si="2">100000000/K55</f>
+        <f t="shared" ref="P55:P60" si="1">100000000/K55</f>
         <v>142.85714285714286</v>
       </c>
       <c r="Q55" s="9" t="s">
@@ -6765,7 +6759,7 @@
         <v>258</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>172.41379310344828</v>
       </c>
       <c r="Q56" s="9" t="s">
@@ -6828,7 +6822,7 @@
         <v>258</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>367.64705882352939</v>
       </c>
       <c r="Q57" s="9" t="s">
@@ -6891,7 +6885,7 @@
         <v>258</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>367.64705882352939</v>
       </c>
       <c r="Q58" s="9" t="s">
@@ -6954,7 +6948,7 @@
         <v>258</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q59" s="9" t="s">
@@ -7017,7 +7011,7 @@
         <v>258</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="Q60" s="9" t="s">

--- a/data/input/tech_mapping_in.xlsx
+++ b/data/input/tech_mapping_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E318788-42D7-4FE0-9D18-1840AFA98F48}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_2611E3FEB37BCA2B912D4C8A4DAD338F7978E3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E12E7FA-A964-461C-842E-9DD79CA7DA4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="276">
   <si>
     <t>id</t>
   </si>
@@ -905,6 +905,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>solar_pv</t>
+  </si>
+  <si>
+    <t>electricity production, pv, operation (empty)</t>
+  </si>
+  <si>
+    <t>Created from scratch</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,6 +3533,56 @@
         <v>158</v>
       </c>
     </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" t="s">
+        <v>138</v>
+      </c>
+      <c r="O42">
+        <v>100</v>
+      </c>
+      <c r="P42" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q42">
+        <v>100000000</v>
+      </c>
+      <c r="R42" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R41">
     <sortCondition ref="A1:A41"/>
@@ -3537,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27541EB-72A6-42F8-B6FE-A372F470059D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4419,7 @@
         <v>142</v>
       </c>
       <c r="P14" s="8">
-        <f>100000/K14</f>
+        <f t="shared" ref="P14:P39" si="1">100000/K14</f>
         <v>304.8780487804878</v>
       </c>
       <c r="Q14" s="9" t="s">
@@ -4417,7 +4476,7 @@
         <v>142</v>
       </c>
       <c r="P15" s="8">
-        <f>100000/K15</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q15" s="9" t="s">
@@ -4474,7 +4533,7 @@
         <v>142</v>
       </c>
       <c r="P16" s="8">
-        <f>100000/K16</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q16" s="9" t="s">
@@ -4531,7 +4590,7 @@
         <v>142</v>
       </c>
       <c r="P17" s="8">
-        <f>100000/K17</f>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="Q17" s="9" t="s">
@@ -4588,7 +4647,7 @@
         <v>142</v>
       </c>
       <c r="P18" s="8">
-        <f>100000/K18</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q18" s="9" t="s">
@@ -4645,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="P19" s="8">
-        <f>100000/K19</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q19" s="9" t="s">
@@ -4702,7 +4761,7 @@
         <v>142</v>
       </c>
       <c r="P20" s="8">
-        <f>100000/K20</f>
+        <f t="shared" si="1"/>
         <v>10.95290251916758</v>
       </c>
       <c r="Q20" s="9" t="s">
@@ -4759,7 +4818,7 @@
         <v>142</v>
       </c>
       <c r="P21" s="8">
-        <f>100000/K21</f>
+        <f t="shared" si="1"/>
         <v>7.2532095452237613</v>
       </c>
       <c r="Q21" s="9" t="s">
@@ -4816,7 +4875,7 @@
         <v>142</v>
       </c>
       <c r="P22" s="8">
-        <f>100000/K22</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q22" s="9" t="s">
@@ -4873,7 +4932,7 @@
         <v>142</v>
       </c>
       <c r="P23" s="8">
-        <f>100000/K23</f>
+        <f t="shared" si="1"/>
         <v>175438.59649122809</v>
       </c>
       <c r="Q23" s="9" t="s">
@@ -4930,7 +4989,7 @@
         <v>142</v>
       </c>
       <c r="P24" s="8">
-        <f>100000/K24</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q24" s="9" t="s">
@@ -4987,7 +5046,7 @@
         <v>142</v>
       </c>
       <c r="P25" s="8">
-        <f>100000/K25</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q25" s="9" t="s">
@@ -5044,7 +5103,7 @@
         <v>142</v>
       </c>
       <c r="P26" s="8">
-        <f>100000/K26</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q26" s="9" t="s">
@@ -5101,7 +5160,7 @@
         <v>142</v>
       </c>
       <c r="P27" s="8">
-        <f>100000/K27</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q27" s="9" t="s">
@@ -5158,7 +5217,7 @@
         <v>142</v>
       </c>
       <c r="P28" s="8">
-        <f>100000/K28</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="Q28" s="9" t="s">
@@ -5215,7 +5274,7 @@
         <v>142</v>
       </c>
       <c r="P29" s="8">
-        <f>100000/K29</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="Q29" s="9" t="s">
@@ -5272,7 +5331,7 @@
         <v>142</v>
       </c>
       <c r="P30" s="8">
-        <f>100000/K30</f>
+        <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="Q30" s="9" t="s">
@@ -5329,7 +5388,7 @@
         <v>142</v>
       </c>
       <c r="P31" s="8">
-        <f>100000/K31</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="Q31" s="9" t="s">
@@ -5386,7 +5445,7 @@
         <v>142</v>
       </c>
       <c r="P32" s="8">
-        <f>100000/K32</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="Q32" s="9" t="s">
@@ -5443,7 +5502,7 @@
         <v>142</v>
       </c>
       <c r="P33" s="8">
-        <f>100000/K33</f>
+        <f t="shared" si="1"/>
         <v>2325581.3953488376</v>
       </c>
       <c r="Q33" s="9" t="s">
@@ -5500,7 +5559,7 @@
         <v>142</v>
       </c>
       <c r="P34" s="8">
-        <f>100000/K34</f>
+        <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="Q34" s="9" t="s">
@@ -5557,7 +5616,7 @@
         <v>142</v>
       </c>
       <c r="P35" s="8">
-        <f>100000/K35</f>
+        <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="Q35" s="9" t="s">
@@ -5614,7 +5673,7 @@
         <v>142</v>
       </c>
       <c r="P36" s="8">
-        <f>100000/K36</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q36" s="9" t="s">
@@ -5677,7 +5736,7 @@
         <v>142</v>
       </c>
       <c r="P37" s="8">
-        <f>100000/K37</f>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="Q37" s="9" t="s">
@@ -5734,7 +5793,7 @@
         <v>142</v>
       </c>
       <c r="P38" s="8">
-        <f>100000/K38</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q38" s="9" t="s">
@@ -5791,7 +5850,7 @@
         <v>142</v>
       </c>
       <c r="P39" s="8">
-        <f>100000/K39</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q39" s="9" t="s">
@@ -6696,7 +6755,7 @@
         <v>258</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" ref="P55:P60" si="1">100000000/K55</f>
+        <f t="shared" ref="P55:P60" si="2">100000000/K55</f>
         <v>142.85714285714286</v>
       </c>
       <c r="Q55" s="9" t="s">
@@ -6759,7 +6818,7 @@
         <v>258</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.41379310344828</v>
       </c>
       <c r="Q56" s="9" t="s">
@@ -6822,7 +6881,7 @@
         <v>258</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367.64705882352939</v>
       </c>
       <c r="Q57" s="9" t="s">
@@ -6885,7 +6944,7 @@
         <v>258</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367.64705882352939</v>
       </c>
       <c r="Q58" s="9" t="s">
@@ -6948,7 +7007,7 @@
         <v>258</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="Q59" s="9" t="s">
@@ -7011,7 +7070,7 @@
         <v>258</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="Q60" s="9" t="s">
